--- a/DataBase/Detalle/ENTRE_RIOS_18_01_2026.xlsx
+++ b/DataBase/Detalle/ENTRE_RIOS_18_01_2026.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <x:si>
-    <x:t>Desde: 01/01/2026 Hasta: 17/01/2026</x:t>
+    <x:t>Desde: 01/01/2026 Hasta: 18/01/2026</x:t>
   </x:si>
   <x:si>
     <x:t>Sucursal: 3</x:t>
@@ -447,6 +447,18 @@
   <x:si>
     <x:t>ARABE QUESO Y TOMATE</x:t>
   </x:si>
+  <x:si>
+    <x:t>VASO LIMONADA MARACUYA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOSTON RICHE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YOGURT CON CEREALES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INCA ROSE</x:t>
+  </x:si>
 </x:sst>
 </file>
 
@@ -532,8 +544,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:K1050" totalsRowShown="0">
-  <x:autoFilter ref="A4:K1050"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:K1137" totalsRowShown="0">
+  <x:autoFilter ref="A4:K1137"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="Número"/>
     <x:tableColumn id="2" name="Tipo"/>
@@ -839,7 +851,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K1050"/>
+  <x:dimension ref="A1:K1137"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -36314,6 +36326,2927 @@
         <x:v>3500</x:v>
       </x:c>
     </x:row>
+    <x:row r="1051" spans="1:11">
+      <x:c r="A1051" s="0" t="n">
+        <x:v>1834610</x:v>
+      </x:c>
+      <x:c r="B1051" s="0" t="s"/>
+      <x:c r="C1051" s="3">
+        <x:v>46039.5916666667</x:v>
+      </x:c>
+      <x:c r="D1051" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1051" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F1051" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1051" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H1051" s="0" t="n">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="I1051" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J1051" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1051" s="2" t="n">
+        <x:v>4700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1052" spans="1:11">
+      <x:c r="A1052" s="0" t="n">
+        <x:v>1834610</x:v>
+      </x:c>
+      <x:c r="B1052" s="0" t="s"/>
+      <x:c r="C1052" s="3">
+        <x:v>46039.5916666667</x:v>
+      </x:c>
+      <x:c r="D1052" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1052" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F1052" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1052" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H1052" s="0" t="n">
+        <x:v>950</x:v>
+      </x:c>
+      <x:c r="I1052" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="J1052" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K1052" s="2" t="n">
+        <x:v>12500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1053" spans="1:11">
+      <x:c r="A1053" s="0" t="n">
+        <x:v>1834610</x:v>
+      </x:c>
+      <x:c r="B1053" s="0" t="s"/>
+      <x:c r="C1053" s="3">
+        <x:v>46039.5916666667</x:v>
+      </x:c>
+      <x:c r="D1053" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1053" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F1053" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1053" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H1053" s="0" t="n">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="I1053" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="J1053" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1053" s="2" t="n">
+        <x:v>11700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1054" spans="1:11">
+      <x:c r="A1054" s="0" t="n">
+        <x:v>1834610</x:v>
+      </x:c>
+      <x:c r="B1054" s="0" t="s"/>
+      <x:c r="C1054" s="3">
+        <x:v>46039.5916666667</x:v>
+      </x:c>
+      <x:c r="D1054" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1054" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F1054" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1054" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H1054" s="0" t="n">
+        <x:v>950</x:v>
+      </x:c>
+      <x:c r="I1054" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="J1054" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1054" s="2" t="n">
+        <x:v>13500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1055" spans="1:11">
+      <x:c r="A1055" s="0" t="n">
+        <x:v>1834609</x:v>
+      </x:c>
+      <x:c r="B1055" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1055" s="3">
+        <x:v>46039.5951388889</x:v>
+      </x:c>
+      <x:c r="D1055" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1055" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F1055" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1055" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1055" s="0" t="n">
+        <x:v>934</x:v>
+      </x:c>
+      <x:c r="I1055" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="J1055" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1055" s="2" t="n">
+        <x:v>6500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1056" spans="1:11">
+      <x:c r="A1056" s="0" t="n">
+        <x:v>1834612</x:v>
+      </x:c>
+      <x:c r="B1056" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1056" s="3">
+        <x:v>46039.5951388889</x:v>
+      </x:c>
+      <x:c r="D1056" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1056" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1056" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1056" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1056" s="0" t="n">
+        <x:v>950</x:v>
+      </x:c>
+      <x:c r="I1056" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="J1056" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K1056" s="2" t="n">
+        <x:v>13500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1057" spans="1:11">
+      <x:c r="A1057" s="0" t="n">
+        <x:v>1834613</x:v>
+      </x:c>
+      <x:c r="B1057" s="0" t="s"/>
+      <x:c r="C1057" s="3">
+        <x:v>46039.6090277778</x:v>
+      </x:c>
+      <x:c r="D1057" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1057" s="0" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F1057" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G1057" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H1057" s="0" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="I1057" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="J1057" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1057" s="2" t="n">
+        <x:v>11500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1058" spans="1:11">
+      <x:c r="A1058" s="0" t="n">
+        <x:v>1834614</x:v>
+      </x:c>
+      <x:c r="B1058" s="0" t="s"/>
+      <x:c r="C1058" s="3">
+        <x:v>46039.6145833333</x:v>
+      </x:c>
+      <x:c r="D1058" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1058" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F1058" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1058" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1058" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1058" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J1058" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1058" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1059" spans="1:11">
+      <x:c r="A1059" s="0" t="n">
+        <x:v>1834618</x:v>
+      </x:c>
+      <x:c r="B1059" s="0" t="s"/>
+      <x:c r="C1059" s="3">
+        <x:v>46039.6201388889</x:v>
+      </x:c>
+      <x:c r="D1059" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1059" s="0" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F1059" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G1059" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H1059" s="0" t="n">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="I1059" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J1059" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1059" s="2" t="n">
+        <x:v>8200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1060" spans="1:11">
+      <x:c r="A1060" s="0" t="n">
+        <x:v>1834616</x:v>
+      </x:c>
+      <x:c r="B1060" s="0" t="s"/>
+      <x:c r="C1060" s="3">
+        <x:v>46039.6256944444</x:v>
+      </x:c>
+      <x:c r="D1060" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1060" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F1060" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1060" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1060" s="0" t="n">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="I1060" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="J1060" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1060" s="2" t="n">
+        <x:v>5300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1061" spans="1:11">
+      <x:c r="A1061" s="0" t="n">
+        <x:v>1834616</x:v>
+      </x:c>
+      <x:c r="B1061" s="0" t="s"/>
+      <x:c r="C1061" s="3">
+        <x:v>46039.6256944444</x:v>
+      </x:c>
+      <x:c r="D1061" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1061" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F1061" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1061" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1061" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1061" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J1061" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1061" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1062" spans="1:11">
+      <x:c r="A1062" s="0" t="n">
+        <x:v>1834615</x:v>
+      </x:c>
+      <x:c r="B1062" s="0" t="s"/>
+      <x:c r="C1062" s="3">
+        <x:v>46039.6458333333</x:v>
+      </x:c>
+      <x:c r="D1062" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1062" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1062" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1062" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1062" s="0" t="n">
+        <x:v>950</x:v>
+      </x:c>
+      <x:c r="I1062" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="J1062" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1062" s="2" t="n">
+        <x:v>13500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1063" spans="1:11">
+      <x:c r="A1063" s="0" t="n">
+        <x:v>1834615</x:v>
+      </x:c>
+      <x:c r="B1063" s="0" t="s"/>
+      <x:c r="C1063" s="3">
+        <x:v>46039.6458333333</x:v>
+      </x:c>
+      <x:c r="D1063" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1063" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1063" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1063" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1063" s="0" t="n">
+        <x:v>459</x:v>
+      </x:c>
+      <x:c r="I1063" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J1063" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1063" s="2" t="n">
+        <x:v>11700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1064" spans="1:11">
+      <x:c r="A1064" s="0" t="n">
+        <x:v>1834615</x:v>
+      </x:c>
+      <x:c r="B1064" s="0" t="s"/>
+      <x:c r="C1064" s="3">
+        <x:v>46039.6458333333</x:v>
+      </x:c>
+      <x:c r="D1064" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1064" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1064" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1064" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1064" s="0" t="n">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="I1064" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="J1064" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1064" s="2" t="n">
+        <x:v>5600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1065" spans="1:11">
+      <x:c r="A1065" s="0" t="n">
+        <x:v>1834617</x:v>
+      </x:c>
+      <x:c r="B1065" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1065" s="3">
+        <x:v>46039.6833333333</x:v>
+      </x:c>
+      <x:c r="D1065" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1065" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1065" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1065" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1065" s="0" t="n">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="I1065" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J1065" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1065" s="2" t="n">
+        <x:v>7500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1066" spans="1:11">
+      <x:c r="A1066" s="0" t="n">
+        <x:v>1834611</x:v>
+      </x:c>
+      <x:c r="B1066" s="0" t="s"/>
+      <x:c r="C1066" s="3">
+        <x:v>46039.7076388889</x:v>
+      </x:c>
+      <x:c r="D1066" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1066" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1066" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1066" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1066" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1066" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J1066" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1066" s="2" t="n">
+        <x:v>3500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1067" spans="1:11">
+      <x:c r="A1067" s="0" t="n">
+        <x:v>1834611</x:v>
+      </x:c>
+      <x:c r="B1067" s="0" t="s"/>
+      <x:c r="C1067" s="3">
+        <x:v>46039.7076388889</x:v>
+      </x:c>
+      <x:c r="D1067" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1067" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1067" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1067" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1067" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1067" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J1067" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1067" s="2" t="n">
+        <x:v>3500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1068" spans="1:11">
+      <x:c r="A1068" s="0" t="n">
+        <x:v>1834611</x:v>
+      </x:c>
+      <x:c r="B1068" s="0" t="s"/>
+      <x:c r="C1068" s="3">
+        <x:v>46039.7076388889</x:v>
+      </x:c>
+      <x:c r="D1068" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1068" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1068" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1068" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1068" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1068" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J1068" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1068" s="2" t="n">
+        <x:v>3500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1069" spans="1:11">
+      <x:c r="A1069" s="0" t="n">
+        <x:v>1834611</x:v>
+      </x:c>
+      <x:c r="B1069" s="0" t="s"/>
+      <x:c r="C1069" s="3">
+        <x:v>46039.7076388889</x:v>
+      </x:c>
+      <x:c r="D1069" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1069" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1069" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1069" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1069" s="0" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I1069" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J1069" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1069" s="2" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1070" spans="1:11">
+      <x:c r="A1070" s="0" t="n">
+        <x:v>1834611</x:v>
+      </x:c>
+      <x:c r="B1070" s="0" t="s"/>
+      <x:c r="C1070" s="3">
+        <x:v>46039.7076388889</x:v>
+      </x:c>
+      <x:c r="D1070" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1070" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1070" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1070" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1070" s="0" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="I1070" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="J1070" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1070" s="2" t="n">
+        <x:v>4300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1071" spans="1:11">
+      <x:c r="A1071" s="0" t="n">
+        <x:v>1834611</x:v>
+      </x:c>
+      <x:c r="B1071" s="0" t="s"/>
+      <x:c r="C1071" s="3">
+        <x:v>46039.7076388889</x:v>
+      </x:c>
+      <x:c r="D1071" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1071" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1071" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1071" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1071" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I1071" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="J1071" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1071" s="2" t="n">
+        <x:v>4900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1072" spans="1:11">
+      <x:c r="A1072" s="0" t="n">
+        <x:v>1834620</x:v>
+      </x:c>
+      <x:c r="B1072" s="0" t="s"/>
+      <x:c r="C1072" s="3">
+        <x:v>46039.73125</x:v>
+      </x:c>
+      <x:c r="D1072" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1072" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F1072" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1072" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1072" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1072" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J1072" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K1072" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1073" spans="1:11">
+      <x:c r="A1073" s="0" t="n">
+        <x:v>1834620</x:v>
+      </x:c>
+      <x:c r="B1073" s="0" t="s"/>
+      <x:c r="C1073" s="3">
+        <x:v>46039.73125</x:v>
+      </x:c>
+      <x:c r="D1073" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1073" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F1073" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1073" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1073" s="0" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I1073" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J1073" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1073" s="2" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1074" spans="1:11">
+      <x:c r="A1074" s="0" t="n">
+        <x:v>1834623</x:v>
+      </x:c>
+      <x:c r="B1074" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1074" s="3">
+        <x:v>46039.7361111111</x:v>
+      </x:c>
+      <x:c r="D1074" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1074" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F1074" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1074" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1074" s="0" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I1074" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="J1074" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1074" s="2" t="n">
+        <x:v>4200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1075" spans="1:11">
+      <x:c r="A1075" s="0" t="n">
+        <x:v>1834623</x:v>
+      </x:c>
+      <x:c r="B1075" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1075" s="3">
+        <x:v>46039.7361111111</x:v>
+      </x:c>
+      <x:c r="D1075" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1075" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F1075" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1075" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1075" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1075" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J1075" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K1075" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1076" spans="1:11">
+      <x:c r="A1076" s="0" t="n">
+        <x:v>1834623</x:v>
+      </x:c>
+      <x:c r="B1076" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1076" s="3">
+        <x:v>46039.7361111111</x:v>
+      </x:c>
+      <x:c r="D1076" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1076" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F1076" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1076" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1076" s="0" t="n">
+        <x:v>651</x:v>
+      </x:c>
+      <x:c r="I1076" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="J1076" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1076" s="2" t="n">
+        <x:v>4500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1077" spans="1:11">
+      <x:c r="A1077" s="0" t="n">
+        <x:v>1834624</x:v>
+      </x:c>
+      <x:c r="B1077" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1077" s="3">
+        <x:v>46039.7569444444</x:v>
+      </x:c>
+      <x:c r="D1077" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1077" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1077" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1077" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1077" s="0" t="n">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I1077" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J1077" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1077" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1078" spans="1:11">
+      <x:c r="A1078" s="0" t="n">
+        <x:v>1834624</x:v>
+      </x:c>
+      <x:c r="B1078" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1078" s="3">
+        <x:v>46039.7569444444</x:v>
+      </x:c>
+      <x:c r="D1078" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1078" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1078" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1078" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1078" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1078" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J1078" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1078" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1079" spans="1:11">
+      <x:c r="A1079" s="0" t="n">
+        <x:v>1834624</x:v>
+      </x:c>
+      <x:c r="B1079" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1079" s="3">
+        <x:v>46039.7569444444</x:v>
+      </x:c>
+      <x:c r="D1079" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1079" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1079" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1079" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1079" s="0" t="n">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c r="I1079" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J1079" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1079" s="2" t="n">
+        <x:v>5400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1080" spans="1:11">
+      <x:c r="A1080" s="0" t="n">
+        <x:v>1834621</x:v>
+      </x:c>
+      <x:c r="B1080" s="0" t="s"/>
+      <x:c r="C1080" s="3">
+        <x:v>46039.7763888889</x:v>
+      </x:c>
+      <x:c r="D1080" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1080" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F1080" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1080" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1080" s="0" t="n">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="I1080" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J1080" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K1080" s="2" t="n">
+        <x:v>8200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1081" spans="1:11">
+      <x:c r="A1081" s="0" t="n">
+        <x:v>1834621</x:v>
+      </x:c>
+      <x:c r="B1081" s="0" t="s"/>
+      <x:c r="C1081" s="3">
+        <x:v>46039.7763888889</x:v>
+      </x:c>
+      <x:c r="D1081" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1081" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F1081" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1081" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1081" s="0" t="n">
+        <x:v>459</x:v>
+      </x:c>
+      <x:c r="I1081" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J1081" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1081" s="2" t="n">
+        <x:v>11700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1082" spans="1:11">
+      <x:c r="A1082" s="0" t="n">
+        <x:v>1834621</x:v>
+      </x:c>
+      <x:c r="B1082" s="0" t="s"/>
+      <x:c r="C1082" s="3">
+        <x:v>46039.7763888889</x:v>
+      </x:c>
+      <x:c r="D1082" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1082" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F1082" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1082" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1082" s="0" t="n">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="I1082" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="J1082" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1082" s="2" t="n">
+        <x:v>8100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1083" spans="1:11">
+      <x:c r="A1083" s="0" t="n">
+        <x:v>1834621</x:v>
+      </x:c>
+      <x:c r="B1083" s="0" t="s"/>
+      <x:c r="C1083" s="3">
+        <x:v>46039.7763888889</x:v>
+      </x:c>
+      <x:c r="D1083" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1083" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F1083" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1083" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1083" s="0" t="n">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="I1083" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="J1083" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1083" s="2" t="n">
+        <x:v>4900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1084" spans="1:11">
+      <x:c r="A1084" s="0" t="n">
+        <x:v>1834628</x:v>
+      </x:c>
+      <x:c r="B1084" s="0" t="s"/>
+      <x:c r="C1084" s="3">
+        <x:v>46039.7763888889</x:v>
+      </x:c>
+      <x:c r="D1084" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1084" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F1084" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1084" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1084" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1084" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J1084" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1084" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1085" spans="1:11">
+      <x:c r="A1085" s="0" t="n">
+        <x:v>1834628</x:v>
+      </x:c>
+      <x:c r="B1085" s="0" t="s"/>
+      <x:c r="C1085" s="3">
+        <x:v>46039.7763888889</x:v>
+      </x:c>
+      <x:c r="D1085" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1085" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F1085" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1085" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1085" s="0" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I1085" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J1085" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1085" s="2" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1086" spans="1:11">
+      <x:c r="A1086" s="0" t="n">
+        <x:v>1834631</x:v>
+      </x:c>
+      <x:c r="B1086" s="0" t="s"/>
+      <x:c r="C1086" s="3">
+        <x:v>46039.7777777778</x:v>
+      </x:c>
+      <x:c r="D1086" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1086" s="0" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F1086" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G1086" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H1086" s="0" t="n">
+        <x:v>1051</x:v>
+      </x:c>
+      <x:c r="I1086" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J1086" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1086" s="2" t="n">
+        <x:v>4100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1087" spans="1:11">
+      <x:c r="A1087" s="0" t="n">
+        <x:v>1834622</x:v>
+      </x:c>
+      <x:c r="B1087" s="0" t="s"/>
+      <x:c r="C1087" s="3">
+        <x:v>46039.7784722222</x:v>
+      </x:c>
+      <x:c r="D1087" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1087" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F1087" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1087" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1087" s="0" t="n">
+        <x:v>750</x:v>
+      </x:c>
+      <x:c r="I1087" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="J1087" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K1087" s="2" t="n">
+        <x:v>13900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1088" spans="1:11">
+      <x:c r="A1088" s="0" t="n">
+        <x:v>1834622</x:v>
+      </x:c>
+      <x:c r="B1088" s="0" t="s"/>
+      <x:c r="C1088" s="3">
+        <x:v>46039.7784722222</x:v>
+      </x:c>
+      <x:c r="D1088" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1088" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F1088" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1088" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1088" s="0" t="n">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="I1088" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="J1088" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1088" s="2" t="n">
+        <x:v>5600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1089" spans="1:11">
+      <x:c r="A1089" s="0" t="n">
+        <x:v>1834622</x:v>
+      </x:c>
+      <x:c r="B1089" s="0" t="s"/>
+      <x:c r="C1089" s="3">
+        <x:v>46039.7784722222</x:v>
+      </x:c>
+      <x:c r="D1089" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1089" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F1089" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1089" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1089" s="0" t="n">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="I1089" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J1089" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1089" s="2" t="n">
+        <x:v>4500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1090" spans="1:11">
+      <x:c r="A1090" s="0" t="n">
+        <x:v>1834622</x:v>
+      </x:c>
+      <x:c r="B1090" s="0" t="s"/>
+      <x:c r="C1090" s="3">
+        <x:v>46039.7784722222</x:v>
+      </x:c>
+      <x:c r="D1090" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1090" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F1090" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1090" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1090" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1090" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J1090" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1090" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1091" spans="1:11">
+      <x:c r="A1091" s="0" t="n">
+        <x:v>1834622</x:v>
+      </x:c>
+      <x:c r="B1091" s="0" t="s"/>
+      <x:c r="C1091" s="3">
+        <x:v>46039.7784722222</x:v>
+      </x:c>
+      <x:c r="D1091" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1091" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F1091" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1091" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1091" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I1091" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="J1091" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1091" s="2" t="n">
+        <x:v>4900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1092" spans="1:11">
+      <x:c r="A1092" s="0" t="n">
+        <x:v>1834622</x:v>
+      </x:c>
+      <x:c r="B1092" s="0" t="s"/>
+      <x:c r="C1092" s="3">
+        <x:v>46039.7784722222</x:v>
+      </x:c>
+      <x:c r="D1092" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1092" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F1092" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1092" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1092" s="0" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I1092" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J1092" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K1092" s="2" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1093" spans="1:11">
+      <x:c r="A1093" s="0" t="n">
+        <x:v>1834619</x:v>
+      </x:c>
+      <x:c r="B1093" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1093" s="3">
+        <x:v>46039.7840277778</x:v>
+      </x:c>
+      <x:c r="D1093" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1093" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1093" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1093" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1093" s="0" t="n">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="I1093" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="J1093" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1093" s="2" t="n">
+        <x:v>8100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1094" spans="1:11">
+      <x:c r="A1094" s="0" t="n">
+        <x:v>1834619</x:v>
+      </x:c>
+      <x:c r="B1094" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1094" s="3">
+        <x:v>46039.7840277778</x:v>
+      </x:c>
+      <x:c r="D1094" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1094" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1094" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1094" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1094" s="0" t="n">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="I1094" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="J1094" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1094" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1095" spans="1:11">
+      <x:c r="A1095" s="0" t="n">
+        <x:v>1834619</x:v>
+      </x:c>
+      <x:c r="B1095" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1095" s="3">
+        <x:v>46039.7840277778</x:v>
+      </x:c>
+      <x:c r="D1095" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1095" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1095" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1095" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1095" s="0" t="n">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I1095" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="J1095" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1095" s="2" t="n">
+        <x:v>5900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1096" spans="1:11">
+      <x:c r="A1096" s="0" t="n">
+        <x:v>1834619</x:v>
+      </x:c>
+      <x:c r="B1096" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1096" s="3">
+        <x:v>46039.7840277778</x:v>
+      </x:c>
+      <x:c r="D1096" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1096" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1096" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1096" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1096" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1096" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J1096" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1096" s="2" t="n">
+        <x:v>3500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1097" spans="1:11">
+      <x:c r="A1097" s="0" t="n">
+        <x:v>1834630</x:v>
+      </x:c>
+      <x:c r="B1097" s="0" t="s"/>
+      <x:c r="C1097" s="3">
+        <x:v>46039.7895833333</x:v>
+      </x:c>
+      <x:c r="D1097" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1097" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F1097" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1097" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1097" s="0" t="n">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="I1097" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="J1097" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K1097" s="2" t="n">
+        <x:v>5900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1098" spans="1:11">
+      <x:c r="A1098" s="0" t="n">
+        <x:v>1834630</x:v>
+      </x:c>
+      <x:c r="B1098" s="0" t="s"/>
+      <x:c r="C1098" s="3">
+        <x:v>46039.7895833333</x:v>
+      </x:c>
+      <x:c r="D1098" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1098" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F1098" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1098" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1098" s="0" t="n">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="I1098" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="J1098" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K1098" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1099" spans="1:11">
+      <x:c r="A1099" s="0" t="n">
+        <x:v>1834629</x:v>
+      </x:c>
+      <x:c r="B1099" s="0" t="s"/>
+      <x:c r="C1099" s="3">
+        <x:v>46039.7902777778</x:v>
+      </x:c>
+      <x:c r="D1099" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1099" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F1099" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1099" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1099" s="0" t="n">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="I1099" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J1099" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1099" s="2" t="n">
+        <x:v>6200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1100" spans="1:11">
+      <x:c r="A1100" s="0" t="n">
+        <x:v>1834629</x:v>
+      </x:c>
+      <x:c r="B1100" s="0" t="s"/>
+      <x:c r="C1100" s="3">
+        <x:v>46039.7902777778</x:v>
+      </x:c>
+      <x:c r="D1100" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1100" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F1100" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1100" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1100" s="0" t="n">
+        <x:v>930</x:v>
+      </x:c>
+      <x:c r="I1100" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="J1100" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1100" s="2" t="n">
+        <x:v>7500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1101" spans="1:11">
+      <x:c r="A1101" s="0" t="n">
+        <x:v>1834636</x:v>
+      </x:c>
+      <x:c r="B1101" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1101" s="3">
+        <x:v>46039.7944444444</x:v>
+      </x:c>
+      <x:c r="D1101" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1101" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F1101" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1101" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1101" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1101" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J1101" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1101" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1102" spans="1:11">
+      <x:c r="A1102" s="0" t="n">
+        <x:v>1834627</x:v>
+      </x:c>
+      <x:c r="B1102" s="0" t="s"/>
+      <x:c r="C1102" s="3">
+        <x:v>46039.8020833333</x:v>
+      </x:c>
+      <x:c r="D1102" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1102" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F1102" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1102" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1102" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1102" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J1102" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K1102" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1103" spans="1:11">
+      <x:c r="A1103" s="0" t="n">
+        <x:v>1834632</x:v>
+      </x:c>
+      <x:c r="B1103" s="0" t="s"/>
+      <x:c r="C1103" s="3">
+        <x:v>46039.8041666667</x:v>
+      </x:c>
+      <x:c r="D1103" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1103" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F1103" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1103" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1103" s="0" t="n">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="I1103" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J1103" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1103" s="2" t="n">
+        <x:v>9900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1104" spans="1:11">
+      <x:c r="A1104" s="0" t="n">
+        <x:v>1834632</x:v>
+      </x:c>
+      <x:c r="B1104" s="0" t="s"/>
+      <x:c r="C1104" s="3">
+        <x:v>46039.8041666667</x:v>
+      </x:c>
+      <x:c r="D1104" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1104" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F1104" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1104" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1104" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="I1104" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="J1104" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1104" s="2" t="n">
+        <x:v>4000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1105" spans="1:11">
+      <x:c r="A1105" s="0" t="n">
+        <x:v>1834625</x:v>
+      </x:c>
+      <x:c r="B1105" s="0" t="s"/>
+      <x:c r="C1105" s="3">
+        <x:v>46039.8083333333</x:v>
+      </x:c>
+      <x:c r="D1105" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1105" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1105" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1105" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1105" s="0" t="n">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="I1105" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J1105" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1105" s="2" t="n">
+        <x:v>4500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1106" spans="1:11">
+      <x:c r="A1106" s="0" t="n">
+        <x:v>1834626</x:v>
+      </x:c>
+      <x:c r="B1106" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1106" s="3">
+        <x:v>46039.8090277778</x:v>
+      </x:c>
+      <x:c r="D1106" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1106" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1106" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1106" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1106" s="0" t="n">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="I1106" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="J1106" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K1106" s="2" t="n">
+        <x:v>3100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1107" spans="1:11">
+      <x:c r="A1107" s="0" t="n">
+        <x:v>1834638</x:v>
+      </x:c>
+      <x:c r="B1107" s="0" t="s"/>
+      <x:c r="C1107" s="3">
+        <x:v>46039.8125</x:v>
+      </x:c>
+      <x:c r="D1107" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1107" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F1107" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1107" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1107" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1107" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J1107" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1107" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1108" spans="1:11">
+      <x:c r="A1108" s="0" t="n">
+        <x:v>1834634</x:v>
+      </x:c>
+      <x:c r="B1108" s="0" t="s"/>
+      <x:c r="C1108" s="3">
+        <x:v>46039.8166666667</x:v>
+      </x:c>
+      <x:c r="D1108" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1108" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1108" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1108" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1108" s="0" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I1108" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="J1108" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1108" s="2" t="n">
+        <x:v>4200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1109" spans="1:11">
+      <x:c r="A1109" s="0" t="n">
+        <x:v>1834634</x:v>
+      </x:c>
+      <x:c r="B1109" s="0" t="s"/>
+      <x:c r="C1109" s="3">
+        <x:v>46039.8166666667</x:v>
+      </x:c>
+      <x:c r="D1109" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1109" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1109" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1109" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1109" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1109" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J1109" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K1109" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1110" spans="1:11">
+      <x:c r="A1110" s="0" t="n">
+        <x:v>1834634</x:v>
+      </x:c>
+      <x:c r="B1110" s="0" t="s"/>
+      <x:c r="C1110" s="3">
+        <x:v>46039.8166666667</x:v>
+      </x:c>
+      <x:c r="D1110" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1110" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1110" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1110" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1110" s="0" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I1110" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J1110" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K1110" s="2" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1111" spans="1:11">
+      <x:c r="A1111" s="0" t="n">
+        <x:v>1834641</x:v>
+      </x:c>
+      <x:c r="B1111" s="0" t="s"/>
+      <x:c r="C1111" s="3">
+        <x:v>46039.8305555556</x:v>
+      </x:c>
+      <x:c r="D1111" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1111" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F1111" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1111" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1111" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1111" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J1111" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1111" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1112" spans="1:11">
+      <x:c r="A1112" s="0" t="n">
+        <x:v>1834641</x:v>
+      </x:c>
+      <x:c r="B1112" s="0" t="s"/>
+      <x:c r="C1112" s="3">
+        <x:v>46039.8305555556</x:v>
+      </x:c>
+      <x:c r="D1112" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1112" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F1112" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1112" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1112" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I1112" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="J1112" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1112" s="2" t="n">
+        <x:v>4900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1113" spans="1:11">
+      <x:c r="A1113" s="0" t="n">
+        <x:v>1834644</x:v>
+      </x:c>
+      <x:c r="B1113" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1113" s="3">
+        <x:v>46039.8319444444</x:v>
+      </x:c>
+      <x:c r="D1113" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1113" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F1113" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1113" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1113" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1113" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J1113" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1113" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1114" spans="1:11">
+      <x:c r="A1114" s="0" t="n">
+        <x:v>1834642</x:v>
+      </x:c>
+      <x:c r="B1114" s="0" t="s"/>
+      <x:c r="C1114" s="3">
+        <x:v>46039.8354166667</x:v>
+      </x:c>
+      <x:c r="D1114" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1114" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F1114" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1114" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1114" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I1114" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="J1114" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1114" s="2" t="n">
+        <x:v>4900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1115" spans="1:11">
+      <x:c r="A1115" s="0" t="n">
+        <x:v>1834643</x:v>
+      </x:c>
+      <x:c r="B1115" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1115" s="3">
+        <x:v>46039.8354166667</x:v>
+      </x:c>
+      <x:c r="D1115" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1115" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F1115" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1115" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1115" s="0" t="n">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="I1115" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J1115" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1115" s="2" t="n">
+        <x:v>7500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1116" spans="1:11">
+      <x:c r="A1116" s="0" t="n">
+        <x:v>1834643</x:v>
+      </x:c>
+      <x:c r="B1116" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1116" s="3">
+        <x:v>46039.8354166667</x:v>
+      </x:c>
+      <x:c r="D1116" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1116" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F1116" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1116" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1116" s="0" t="n">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="I1116" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J1116" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1116" s="2" t="n">
+        <x:v>8200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1117" spans="1:11">
+      <x:c r="A1117" s="0" t="n">
+        <x:v>1834643</x:v>
+      </x:c>
+      <x:c r="B1117" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1117" s="3">
+        <x:v>46039.8354166667</x:v>
+      </x:c>
+      <x:c r="D1117" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1117" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F1117" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1117" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1117" s="0" t="n">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="I1117" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="J1117" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1117" s="2" t="n">
+        <x:v>5400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1118" spans="1:11">
+      <x:c r="A1118" s="0" t="n">
+        <x:v>1834639</x:v>
+      </x:c>
+      <x:c r="B1118" s="0" t="s"/>
+      <x:c r="C1118" s="3">
+        <x:v>46039.8451388889</x:v>
+      </x:c>
+      <x:c r="D1118" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1118" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F1118" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1118" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1118" s="0" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I1118" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J1118" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1118" s="2" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1119" spans="1:11">
+      <x:c r="A1119" s="0" t="n">
+        <x:v>1834639</x:v>
+      </x:c>
+      <x:c r="B1119" s="0" t="s"/>
+      <x:c r="C1119" s="3">
+        <x:v>46039.8451388889</x:v>
+      </x:c>
+      <x:c r="D1119" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1119" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F1119" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1119" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1119" s="0" t="n">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="I1119" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J1119" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1119" s="2" t="n">
+        <x:v>4500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1120" spans="1:11">
+      <x:c r="A1120" s="0" t="n">
+        <x:v>1834640</x:v>
+      </x:c>
+      <x:c r="B1120" s="0" t="s"/>
+      <x:c r="C1120" s="3">
+        <x:v>46039.8451388889</x:v>
+      </x:c>
+      <x:c r="D1120" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1120" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F1120" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G1120" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H1120" s="0" t="n">
+        <x:v>632</x:v>
+      </x:c>
+      <x:c r="I1120" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="J1120" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K1120" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1121" spans="1:11">
+      <x:c r="A1121" s="0" t="n">
+        <x:v>1834640</x:v>
+      </x:c>
+      <x:c r="B1121" s="0" t="s"/>
+      <x:c r="C1121" s="3">
+        <x:v>46039.8451388889</x:v>
+      </x:c>
+      <x:c r="D1121" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1121" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F1121" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G1121" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H1121" s="0" t="n">
+        <x:v>630</x:v>
+      </x:c>
+      <x:c r="I1121" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="J1121" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K1121" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1122" spans="1:11">
+      <x:c r="A1122" s="0" t="n">
+        <x:v>1834637</x:v>
+      </x:c>
+      <x:c r="B1122" s="0" t="s"/>
+      <x:c r="C1122" s="3">
+        <x:v>46039.8520833333</x:v>
+      </x:c>
+      <x:c r="D1122" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1122" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1122" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1122" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1122" s="0" t="n">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="I1122" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="J1122" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1122" s="2" t="n">
+        <x:v>9100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1123" spans="1:11">
+      <x:c r="A1123" s="0" t="n">
+        <x:v>1834637</x:v>
+      </x:c>
+      <x:c r="B1123" s="0" t="s"/>
+      <x:c r="C1123" s="3">
+        <x:v>46039.8520833333</x:v>
+      </x:c>
+      <x:c r="D1123" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1123" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1123" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1123" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1123" s="0" t="n">
+        <x:v>451</x:v>
+      </x:c>
+      <x:c r="I1123" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J1123" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1123" s="2" t="n">
+        <x:v>12700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1124" spans="1:11">
+      <x:c r="A1124" s="0" t="n">
+        <x:v>1834637</x:v>
+      </x:c>
+      <x:c r="B1124" s="0" t="s"/>
+      <x:c r="C1124" s="3">
+        <x:v>46039.8520833333</x:v>
+      </x:c>
+      <x:c r="D1124" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1124" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1124" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1124" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1124" s="0" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="I1124" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="J1124" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1124" s="2" t="n">
+        <x:v>11500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1125" spans="1:11">
+      <x:c r="A1125" s="0" t="n">
+        <x:v>1834637</x:v>
+      </x:c>
+      <x:c r="B1125" s="0" t="s"/>
+      <x:c r="C1125" s="3">
+        <x:v>46039.8520833333</x:v>
+      </x:c>
+      <x:c r="D1125" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1125" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1125" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1125" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1125" s="0" t="n">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="I1125" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="J1125" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1125" s="2" t="n">
+        <x:v>7800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1126" spans="1:11">
+      <x:c r="A1126" s="0" t="n">
+        <x:v>1834637</x:v>
+      </x:c>
+      <x:c r="B1126" s="0" t="s"/>
+      <x:c r="C1126" s="3">
+        <x:v>46039.8520833333</x:v>
+      </x:c>
+      <x:c r="D1126" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1126" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1126" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1126" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1126" s="0" t="n">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="I1126" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="J1126" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1126" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1127" spans="1:11">
+      <x:c r="A1127" s="0" t="n">
+        <x:v>1834637</x:v>
+      </x:c>
+      <x:c r="B1127" s="0" t="s"/>
+      <x:c r="C1127" s="3">
+        <x:v>46039.8520833333</x:v>
+      </x:c>
+      <x:c r="D1127" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1127" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1127" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1127" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1127" s="0" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I1127" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J1127" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1127" s="2" t="n">
+        <x:v>5500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1128" spans="1:11">
+      <x:c r="A1128" s="0" t="n">
+        <x:v>1834633</x:v>
+      </x:c>
+      <x:c r="B1128" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1128" s="3">
+        <x:v>46039.8652777778</x:v>
+      </x:c>
+      <x:c r="D1128" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1128" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F1128" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1128" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1128" s="0" t="n">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="I1128" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J1128" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1128" s="2" t="n">
+        <x:v>7500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1129" spans="1:11">
+      <x:c r="A1129" s="0" t="n">
+        <x:v>1834645</x:v>
+      </x:c>
+      <x:c r="B1129" s="0" t="s"/>
+      <x:c r="C1129" s="3">
+        <x:v>46039.8652777778</x:v>
+      </x:c>
+      <x:c r="D1129" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1129" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1129" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1129" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1129" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1129" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J1129" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K1129" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1130" spans="1:11">
+      <x:c r="A1130" s="0" t="n">
+        <x:v>1834646</x:v>
+      </x:c>
+      <x:c r="B1130" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1130" s="3">
+        <x:v>46039.8652777778</x:v>
+      </x:c>
+      <x:c r="D1130" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1130" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1130" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1130" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1130" s="0" t="n">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="I1130" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="J1130" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1130" s="2" t="n">
+        <x:v>6900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1131" spans="1:11">
+      <x:c r="A1131" s="0" t="n">
+        <x:v>1834646</x:v>
+      </x:c>
+      <x:c r="B1131" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1131" s="3">
+        <x:v>46039.8652777778</x:v>
+      </x:c>
+      <x:c r="D1131" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1131" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1131" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1131" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1131" s="0" t="n">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="I1131" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J1131" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1131" s="2" t="n">
+        <x:v>8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1132" spans="1:11">
+      <x:c r="A1132" s="0" t="n">
+        <x:v>1834646</x:v>
+      </x:c>
+      <x:c r="B1132" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1132" s="3">
+        <x:v>46039.8652777778</x:v>
+      </x:c>
+      <x:c r="D1132" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1132" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1132" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1132" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1132" s="0" t="n">
+        <x:v>501</x:v>
+      </x:c>
+      <x:c r="I1132" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="J1132" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1132" s="2" t="n">
+        <x:v>4100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1133" spans="1:11">
+      <x:c r="A1133" s="0" t="n">
+        <x:v>1834646</x:v>
+      </x:c>
+      <x:c r="B1133" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1133" s="3">
+        <x:v>46039.8652777778</x:v>
+      </x:c>
+      <x:c r="D1133" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1133" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1133" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1133" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1133" s="0" t="n">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="I1133" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="J1133" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1133" s="2" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1134" spans="1:11">
+      <x:c r="A1134" s="0" t="n">
+        <x:v>1834646</x:v>
+      </x:c>
+      <x:c r="B1134" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1134" s="3">
+        <x:v>46039.8652777778</x:v>
+      </x:c>
+      <x:c r="D1134" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1134" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1134" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1134" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1134" s="0" t="n">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="I1134" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="J1134" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1134" s="2" t="n">
+        <x:v>4900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1135" spans="1:11">
+      <x:c r="A1135" s="0" t="n">
+        <x:v>1834647</x:v>
+      </x:c>
+      <x:c r="B1135" s="0" t="s"/>
+      <x:c r="C1135" s="3">
+        <x:v>46039.8652777778</x:v>
+      </x:c>
+      <x:c r="D1135" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1135" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F1135" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1135" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1135" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I1135" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="J1135" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1135" s="2" t="n">
+        <x:v>5900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1136" spans="1:11">
+      <x:c r="A1136" s="0" t="n">
+        <x:v>1834647</x:v>
+      </x:c>
+      <x:c r="B1136" s="0" t="s"/>
+      <x:c r="C1136" s="3">
+        <x:v>46039.8652777778</x:v>
+      </x:c>
+      <x:c r="D1136" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1136" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F1136" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1136" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1136" s="0" t="n">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="I1136" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J1136" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1136" s="2" t="n">
+        <x:v>4700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1137" spans="1:11">
+      <x:c r="A1137" s="0" t="n">
+        <x:v>1834648</x:v>
+      </x:c>
+      <x:c r="B1137" s="0" t="s"/>
+      <x:c r="C1137" s="3">
+        <x:v>46039.8652777778</x:v>
+      </x:c>
+      <x:c r="D1137" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1137" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F1137" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1137" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H1137" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1137" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J1137" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1137" s="2" t="n">
+        <x:v>3500</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
